--- a/NMJ Project Code/NMJGrooveAnalysis9_25_25.xlsx
+++ b/NMJ Project Code/NMJGrooveAnalysis9_25_25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="342" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="488" uniqueCount="7">
   <si>
     <t>Day</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>D0</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,13 +538,141 @@
         <v>10.357968750000012</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="0">
+        <v>14.673789062500003</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="0">
+        <v>15.536953124999997</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="0">
+        <v>15.536953125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0">
+        <v>16.400117187500001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="0">
+        <v>14.673789062499999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="0">
+        <v>13.810625000000002</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="0">
+        <v>16.400117187500001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="0">
+        <v>13.810625000000002</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="0">
+        <v>14.673789062499999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="0">
+        <v>11.221132812499999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="0">
+        <v>13.810625000000002</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="0">
+        <v>14.673789062499999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="0">
+        <v>16.400117187499998</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="0">
+        <v>15.536953124999997</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="0">
+        <v>15.536953124999997</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="0">
+        <v>16.400117187500001</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,6 +1130,134 @@
         <v>48.337187500000027</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="0">
+        <v>56.968828125000002</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="0">
+        <v>45.747695312499999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="0">
+        <v>50.063515624999994</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0">
+        <v>53.516171874999998</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="0">
+        <v>52.653007812500022</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="0">
+        <v>50.06351562499998</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="0">
+        <v>50.926679687499984</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="0">
+        <v>51.789843749999989</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="0">
+        <v>52.65300781250005</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="0">
+        <v>46.610859374999961</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="0">
+        <v>50.063515625000036</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="0">
+        <v>49.200351562500032</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="0">
+        <v>51.789843749999932</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="0">
+        <v>56.968828124999959</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="0">
+        <v>44.884531250000009</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="0">
+        <v>54.379335937500059</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/NMJ Project Code/NMJGrooveAnalysis9_25_25.xlsx
+++ b/NMJ Project Code/NMJGrooveAnalysis9_25_25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="488" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="634" uniqueCount="7">
   <si>
     <t>Day</t>
   </si>
@@ -100,111 +100,111 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0">
-        <v>25.03175781249999</v>
+        <v>14.673789062500003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>17.263281249999977</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0">
-        <v>15.536953124999997</v>
+        <v>15.536953125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0">
-        <v>19.852773437499991</v>
+        <v>16.400117187500001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0">
-        <v>16.400117187500001</v>
+        <v>14.673789062499999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>14.67378906250002</v>
+        <v>13.810625000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>13.810624999999987</v>
+        <v>16.400117187500001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0">
-        <v>12.084296875000007</v>
+        <v>13.810625000000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0">
-        <v>12.947460937500011</v>
+        <v>14.673789062499999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0">
-        <v>12.947460937499983</v>
+        <v>11.221132812499999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0">
-        <v>13.810624999999987</v>
+        <v>13.810625000000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0">
-        <v>14.673789062499992</v>
+        <v>14.673789062499999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0">
-        <v>11.221132812500002</v>
+        <v>16.400117187499998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0">
         <v>15.536953124999997</v>
@@ -212,7 +212,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0">
         <v>15.536953124999997</v>
@@ -220,7 +220,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0">
         <v>16.400117187500001</v>
@@ -231,7 +231,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>15.536953124999997</v>
+        <v>25.03175781249999</v>
       </c>
     </row>
     <row r="19">
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>14.673789062499992</v>
+        <v>17.263281249999977</v>
       </c>
     </row>
     <row r="20">
@@ -247,7 +247,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>14.673789062499992</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="21">
@@ -255,7 +255,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>12.947460937499997</v>
+        <v>19.852773437499991</v>
       </c>
     </row>
     <row r="22">
@@ -263,7 +263,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>12.084296874999993</v>
+        <v>16.400117187500001</v>
       </c>
     </row>
     <row r="23">
@@ -271,7 +271,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>14.673789062499992</v>
+        <v>14.67378906250002</v>
       </c>
     </row>
     <row r="24">
@@ -279,7 +279,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="0">
-        <v>14.673789062500006</v>
+        <v>13.810624999999987</v>
       </c>
     </row>
     <row r="25">
@@ -287,7 +287,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="0">
-        <v>12.084296874999993</v>
+        <v>12.084296875000007</v>
       </c>
     </row>
     <row r="26">
@@ -295,7 +295,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="0">
-        <v>12.084296874999993</v>
+        <v>12.947460937500011</v>
       </c>
     </row>
     <row r="27">
@@ -303,7 +303,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="0">
-        <v>13.810624999999995</v>
+        <v>12.947460937499983</v>
       </c>
     </row>
     <row r="28">
@@ -311,7 +311,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="0">
-        <v>19.852773437500005</v>
+        <v>13.810624999999987</v>
       </c>
     </row>
     <row r="29">
@@ -319,7 +319,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="0">
-        <v>18.126445312499996</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="30">
@@ -327,343 +327,343 @@
         <v>1</v>
       </c>
       <c r="B30" s="0">
-        <v>15.536953124999997</v>
+        <v>11.221132812500002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="0">
-        <v>14.673789062499992</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0">
-        <v>12.084296875000007</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="0">
-        <v>15.536953124999997</v>
+        <v>16.400117187500001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0">
-        <v>13.810625000000002</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="0">
-        <v>15.536953124999997</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="0">
-        <v>15.536953124999997</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="0">
-        <v>16.400117187500001</v>
+        <v>12.947460937499997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="0">
-        <v>14.673789062499992</v>
+        <v>12.084296874999993</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="0">
-        <v>18.126445312499996</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="0">
-        <v>20.715937499999995</v>
+        <v>14.673789062500006</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="0">
-        <v>18.989609375000001</v>
+        <v>12.084296874999993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="0">
-        <v>15.536953125000011</v>
+        <v>12.084296874999993</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="0">
-        <v>17.263281249999991</v>
+        <v>13.810624999999995</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="0">
-        <v>13.810625000000002</v>
+        <v>19.852773437500005</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="0">
-        <v>14.673789062499992</v>
+        <v>18.126445312499996</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="0">
-        <v>16.400117187499987</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="0">
-        <v>12.001884225816639</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="0">
-        <v>18.126445312499996</v>
+        <v>12.084296875000007</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="0">
-        <v>12.947460937500011</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="0">
-        <v>14.673789062500006</v>
+        <v>13.810625000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="0">
-        <v>17.263281249999991</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="0">
-        <v>10.357968749999998</v>
+        <v>15.536953124999997</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="0">
-        <v>16.400117187500015</v>
+        <v>16.400117187500001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="0">
-        <v>15.536953125000011</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" s="0">
-        <v>12.084296875000007</v>
+        <v>18.126445312499996</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="0">
-        <v>10.357968750000012</v>
+        <v>20.715937499999995</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57" s="0">
-        <v>14.673789062500003</v>
+        <v>18.989609375000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" s="0">
-        <v>15.536953124999997</v>
+        <v>15.536953125000011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" s="0">
-        <v>15.536953125</v>
+        <v>17.263281249999991</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" s="0">
-        <v>16.400117187500001</v>
+        <v>13.810625000000002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61" s="0">
-        <v>14.673789062499999</v>
+        <v>14.673789062499992</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62" s="0">
-        <v>13.810625000000002</v>
+        <v>16.400117187499987</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B63" s="0">
-        <v>16.400117187500001</v>
+        <v>12.001884225816639</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B64" s="0">
-        <v>13.810625000000002</v>
+        <v>18.126445312499996</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" s="0">
-        <v>14.673789062499999</v>
+        <v>12.947460937500011</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66" s="0">
-        <v>11.221132812499999</v>
+        <v>14.673789062500006</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67" s="0">
-        <v>13.810625000000002</v>
+        <v>17.263281249999991</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B68" s="0">
-        <v>14.673789062499999</v>
+        <v>10.357968749999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69" s="0">
-        <v>16.400117187499998</v>
+        <v>16.400117187500015</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" s="0">
-        <v>15.536953124999997</v>
+        <v>15.536953125000011</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" s="0">
-        <v>15.536953124999997</v>
+        <v>12.084296875000007</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" s="0">
-        <v>16.400117187500001</v>
+        <v>10.357968750000012</v>
       </c>
     </row>
   </sheetData>
@@ -692,130 +692,130 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0">
-        <v>55.242499999999993</v>
+        <v>56.968828125000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>49.200351562500003</v>
+        <v>45.747695312499999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0">
-        <v>59.558320312500001</v>
+        <v>50.063515624999994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0">
-        <v>48.337187499999999</v>
+        <v>53.516171874999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0">
-        <v>50.06351562499998</v>
+        <v>52.653007812500022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>54.379335937500002</v>
+        <v>50.06351562499998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>54.379335937500002</v>
+        <v>50.926679687499984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0">
-        <v>50.063515625000036</v>
+        <v>51.789843749999989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0">
-        <v>51.789843749999932</v>
+        <v>52.65300781250005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0">
-        <v>55.242500000000064</v>
+        <v>46.610859374999961</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0">
-        <v>52.653007812499936</v>
+        <v>50.063515625000036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0">
-        <v>53.516171875000055</v>
+        <v>49.200351562500032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0">
-        <v>55.24249999999995</v>
+        <v>51.789843749999932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0">
-        <v>52.65300781250005</v>
+        <v>56.968828124999959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0">
-        <v>54.379335937499945</v>
+        <v>44.884531250000009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0">
-        <v>56.10566406249999</v>
+        <v>54.379335937500059</v>
       </c>
     </row>
     <row r="18">
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>50.063515625000008</v>
+        <v>55.242499999999993</v>
       </c>
     </row>
     <row r="19">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>53.516171874999998</v>
+        <v>49.200351562500003</v>
       </c>
     </row>
     <row r="20">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>54.379335937499974</v>
+        <v>59.558320312500001</v>
       </c>
     </row>
     <row r="21">
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>54.379335937500002</v>
+        <v>48.337187499999999</v>
       </c>
     </row>
     <row r="22">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>49.200351562500032</v>
+        <v>50.06351562499998</v>
       </c>
     </row>
     <row r="23">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>52.653007812499993</v>
+        <v>54.379335937500002</v>
       </c>
     </row>
     <row r="24">
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="0">
-        <v>51.789843749999989</v>
+        <v>54.379335937500002</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="0">
-        <v>49.200351562499975</v>
+        <v>50.063515625000036</v>
       </c>
     </row>
     <row r="26">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="0">
-        <v>57.831992187500077</v>
+        <v>51.789843749999932</v>
       </c>
     </row>
     <row r="27">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="0">
-        <v>64.7373046875</v>
+        <v>55.242500000000064</v>
       </c>
     </row>
     <row r="28">
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="0">
-        <v>43.158203125</v>
+        <v>52.653007812499936</v>
       </c>
     </row>
     <row r="29">
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="0">
-        <v>44.884531250000009</v>
+        <v>53.516171875000055</v>
       </c>
     </row>
     <row r="30">
@@ -919,343 +919,343 @@
         <v>1</v>
       </c>
       <c r="B30" s="0">
-        <v>52.653007812499936</v>
+        <v>55.24249999999995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="0">
-        <v>50.063515625000008</v>
+        <v>52.65300781250005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0">
-        <v>55.242500000000007</v>
+        <v>54.379335937499945</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="0">
-        <v>51.789843749999989</v>
+        <v>56.10566406249999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0">
-        <v>56.968828125000016</v>
+        <v>50.063515625000008</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="0">
-        <v>47.474023437499966</v>
+        <v>53.516171874999998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="0">
-        <v>56.968828125000016</v>
+        <v>54.379335937499974</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="0">
-        <v>50.926679687499984</v>
+        <v>54.379335937500002</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="0">
-        <v>56.105664062500011</v>
+        <v>49.200351562500032</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="0">
-        <v>53.516171874999998</v>
+        <v>52.653007812499993</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="0">
-        <v>46.610859375000018</v>
+        <v>51.789843749999989</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="0">
-        <v>50.926679687500041</v>
+        <v>49.200351562499975</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="0">
-        <v>52.653007812500007</v>
+        <v>57.831992187500077</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="0">
-        <v>40.568710937499986</v>
+        <v>64.7373046875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="0">
-        <v>57.83199218750002</v>
+        <v>43.158203125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="0">
-        <v>51.789843749999989</v>
+        <v>44.884531250000009</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="0">
-        <v>50.063515625000008</v>
+        <v>52.653007812499936</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="0">
-        <v>49.200351562499975</v>
+        <v>50.063515625000008</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="0">
-        <v>50.926679687500041</v>
+        <v>55.242500000000007</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="0">
-        <v>48.33718749999997</v>
+        <v>51.789843749999989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" s="0">
-        <v>58.695156250000025</v>
+        <v>56.968828125000016</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="0">
-        <v>44.884531249999952</v>
+        <v>47.474023437499966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="0">
-        <v>58.695156249999968</v>
+        <v>56.968828125000016</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="0">
-        <v>48.337187500000027</v>
+        <v>50.926679687499984</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="0">
-        <v>55.242500000000064</v>
+        <v>56.105664062500011</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" s="0">
-        <v>50.926679687499927</v>
+        <v>53.516171874999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="0">
-        <v>48.337187500000027</v>
+        <v>46.610859375000018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57" s="0">
-        <v>56.968828125000002</v>
+        <v>50.926679687500041</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" s="0">
-        <v>45.747695312499999</v>
+        <v>52.653007812500007</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" s="0">
-        <v>50.063515624999994</v>
+        <v>40.568710937499986</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" s="0">
-        <v>53.516171874999998</v>
+        <v>57.83199218750002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61" s="0">
-        <v>52.653007812500022</v>
+        <v>51.789843749999989</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62" s="0">
-        <v>50.06351562499998</v>
+        <v>50.063515625000008</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B63" s="0">
-        <v>50.926679687499984</v>
+        <v>49.200351562499975</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B64" s="0">
-        <v>51.789843749999989</v>
+        <v>50.926679687500041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" s="0">
-        <v>52.65300781250005</v>
+        <v>48.33718749999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66" s="0">
-        <v>46.610859374999961</v>
+        <v>58.695156250000025</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67" s="0">
-        <v>50.063515625000036</v>
+        <v>44.884531249999952</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B68" s="0">
-        <v>49.200351562500032</v>
+        <v>58.695156249999968</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69" s="0">
-        <v>51.789843749999932</v>
+        <v>48.337187500000027</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" s="0">
-        <v>56.968828124999959</v>
+        <v>55.242500000000064</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" s="0">
-        <v>44.884531250000009</v>
+        <v>50.926679687499927</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" s="0">
-        <v>54.379335937500059</v>
+        <v>48.337187500000027</v>
       </c>
     </row>
   </sheetData>
